--- a/src35/sigmoid_f.xlsx
+++ b/src35/sigmoid_f.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>-np.dot(ws,xs)</t>
+    <t>1/(1 + np.exp(-np.dot(ws,xs) -b))</t>
   </si>
   <si>
-    <t>"-b"</t>
+    <t>"b"</t>
   </si>
   <si>
-    <t>1/(1 + np.exp(-np.dot(ws,xs) -b))</t>
+    <t>np.dot(ws,xs)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,61 +381,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>1/(1+EXP(A2)-B2)</f>
-        <v>0.49832116918674868</v>
+        <f>1/(1+EXP(-A2-B2))</f>
+        <v>0.98201379003790845</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">1/(1+EXP(A3)-B3)</f>
-        <v>0.33305814380036614</v>
+        <f t="shared" ref="C3:C5" si="0">1/(1+EXP(-A3-B3))</f>
+        <v>1.7986209962091559E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.24994302036682783</v>
+        <v>3.3535013046647811E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.19998658239510492</v>
+        <v>0.99995460213129761</v>
       </c>
     </row>
   </sheetData>
